--- a/id.xlsx
+++ b/id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T580\Dev\timekeeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C23B9-3B4E-42B4-8592-871B7AA012BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD93C377-C70B-429D-B583-878A654A4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53AA29C1-B37F-4CE9-AD94-ADD54326E203}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{53AA29C1-B37F-4CE9-AD94-ADD54326E203}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>OP-KL</t>
+  </si>
+  <si>
+    <t>Verpacken</t>
+  </si>
+  <si>
+    <t>Hauptstation</t>
+  </si>
+  <si>
+    <t>Versenden</t>
+  </si>
+  <si>
+    <t>Etikettieren</t>
   </si>
 </sst>
 </file>
@@ -440,15 +452,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E087DCE2-478C-4CF5-A2E7-0AC7D8563C2D}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +470,11 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123456</v>
       </c>
@@ -469,8 +484,11 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101010</v>
       </c>
@@ -480,8 +498,11 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>654321</v>
       </c>
@@ -491,8 +512,11 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>112233</v>
       </c>
@@ -502,8 +526,11 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>334455</v>
       </c>
@@ -513,8 +540,11 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>556677</v>
       </c>
@@ -524,8 +554,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>778899</v>
       </c>
@@ -535,8 +568,11 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>990011</v>
       </c>
@@ -546,8 +582,11 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>202020</v>
       </c>
@@ -557,8 +596,11 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>404040</v>
       </c>
@@ -568,8 +610,11 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>606060</v>
       </c>
@@ -579,8 +624,11 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>808080</v>
       </c>
@@ -590,8 +638,11 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>101010</v>
       </c>
@@ -601,8 +652,11 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>212020</v>
       </c>
@@ -612,8 +666,11 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>303030</v>
       </c>
@@ -623,8 +680,11 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>414040</v>
       </c>
@@ -634,8 +694,11 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>505050</v>
       </c>
@@ -645,8 +708,11 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>606060</v>
       </c>
@@ -656,8 +722,11 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>707070</v>
       </c>
@@ -667,8 +736,11 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>808080</v>
       </c>
@@ -677,6 +749,9 @@
       </c>
       <c r="C21" t="s">
         <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/id.xlsx
+++ b/id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T580\Dev\timekeeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD93C377-C70B-429D-B583-878A654A4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326A3AA-65DD-4124-ABF6-DCE9018CE6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{53AA29C1-B37F-4CE9-AD94-ADD54326E203}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53AA29C1-B37F-4CE9-AD94-ADD54326E203}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +100,69 @@
   </si>
   <si>
     <t>Etikettieren</t>
+  </si>
+  <si>
+    <t>qualifizierte Stationen</t>
+  </si>
+  <si>
+    <t>Mittagspause</t>
+  </si>
+  <si>
+    <t>Reifen wechseln</t>
+  </si>
+  <si>
+    <t>Baum schmücken</t>
+  </si>
+  <si>
+    <t>Lieder singen</t>
+  </si>
+  <si>
+    <t>programmieren</t>
+  </si>
+  <si>
+    <t>Switch spielen</t>
+  </si>
+  <si>
+    <t>Reality TV</t>
+  </si>
+  <si>
+    <t>Besen fliegen</t>
+  </si>
+  <si>
+    <t>eigentlich nichts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dies </t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>Ananas</t>
+  </si>
+  <si>
+    <t>Fußball</t>
+  </si>
+  <si>
+    <t>Kickern</t>
+  </si>
+  <si>
+    <t>Billard</t>
+  </si>
+  <si>
+    <t>irgendwas</t>
+  </si>
+  <si>
+    <t>nichts</t>
+  </si>
+  <si>
+    <t>kaum was</t>
+  </si>
+  <si>
+    <t>Haarlis machen</t>
+  </si>
+  <si>
+    <t>entspannen</t>
   </si>
 </sst>
 </file>
@@ -452,15 +515,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E087DCE2-478C-4CF5-A2E7-0AC7D8563C2D}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +539,11 @@
       <c r="D1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123456</v>
       </c>
@@ -487,8 +556,23 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101010</v>
       </c>
@@ -501,8 +585,20 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>654321</v>
       </c>
@@ -515,8 +611,17 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>112233</v>
       </c>
@@ -529,8 +634,14 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>334455</v>
       </c>
@@ -543,8 +654,14 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>556677</v>
       </c>
@@ -557,8 +674,14 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>778899</v>
       </c>
@@ -571,8 +694,14 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>990011</v>
       </c>
@@ -585,8 +714,14 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>202020</v>
       </c>
@@ -599,8 +734,14 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>404040</v>
       </c>
@@ -613,8 +754,14 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>606060</v>
       </c>
@@ -627,8 +774,11 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>808080</v>
       </c>
@@ -641,10 +791,19 @@
       <c r="D13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>101010</v>
+        <v>111111</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -655,8 +814,11 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>212020</v>
       </c>
@@ -669,8 +831,11 @@
       <c r="D15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>303030</v>
       </c>
@@ -683,8 +848,11 @@
       <c r="D16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>414040</v>
       </c>
@@ -697,8 +865,11 @@
       <c r="D17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>505050</v>
       </c>
@@ -711,8 +882,11 @@
       <c r="D18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>606060</v>
       </c>
@@ -725,8 +899,11 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>707070</v>
       </c>
@@ -739,8 +916,11 @@
       <c r="D20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>808080</v>
       </c>
@@ -752,6 +932,9 @@
       </c>
       <c r="D21" t="s">
         <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
